--- a/biology/Zoologie/Hirondelle_sud-africaine/Hirondelle_sud-africaine.xlsx
+++ b/biology/Zoologie/Hirondelle_sud-africaine/Hirondelle_sud-africaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petrochelidon spilodera
 L'Hirondelle sud-africaine (Petrochelidon spilodera) est une espèce de passereau de la famille des Hirundinidae. C'est une espèce monotypique (non subdivisée en sous-espèces), parfois classée dans le genre Hirundo.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur le République démocratique du Congo, l'Angola, la Zambie, la Namibie, le Botswana, le Zimbabwe, l'Afrique du Sud et le Lesotho. C'est une espèce accidentelle au Gabon, en République du Congo et au Malawi.
 </t>
